--- a/TestData/Calendar.xlsx
+++ b/TestData/Calendar.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AB588B-3B47-4B5D-BFE8-566E33E179CA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24890" windowHeight="10670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -287,9 +288,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>2G</t>
-  </si>
-  <si>
     <t>ReportSubscriberTroubleTest_MOCall</t>
   </si>
   <si>
@@ -302,19 +300,22 @@
     <t>Report Subscriber Trouble Test for MTCall</t>
   </si>
   <si>
-    <t>Request Network Testing</t>
-  </si>
-  <si>
     <t>RequestNetworkTesting</t>
   </si>
   <si>
-    <t>MO Call</t>
+    <t>3G.</t>
+  </si>
+  <si>
+    <t>Data Services</t>
+  </si>
+  <si>
+    <t>ICCID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,6 +498,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -532,6 +550,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,55 +742,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:AZ10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="53.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="53.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="25.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="19.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="25" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="23.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="27.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="25.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="28.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="25" width="23.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="19.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="27.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="34" width="30.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="12.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="33" max="34" width="30.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="23.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -913,7 +948,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -980,7 +1015,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
     </row>
-    <row r="3" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
@@ -1043,7 +1078,7 @@
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
     </row>
-    <row r="4" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -1097,7 +1132,7 @@
         <v>79</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>87</v>
@@ -1137,16 +1172,16 @@
       <c r="AY4" s="3"/>
       <c r="AZ4" s="3"/>
     </row>
-    <row r="5" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1157,7 +1192,7 @@
         <v>69</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>88</v>
@@ -1166,7 +1201,7 @@
         <v>75</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>72</v>
@@ -1227,7 +1262,7 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
     </row>
-    <row r="6" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
@@ -1319,16 +1354,16 @@
       <c r="AY6" s="3"/>
       <c r="AZ6" s="3"/>
     </row>
-    <row r="7" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1407,7 +1442,7 @@
       <c r="AY7" s="4"/>
       <c r="AZ7" s="4"/>
     </row>
-    <row r="8" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1499,16 +1534,16 @@
       <c r="AY8" s="3"/>
       <c r="AZ8" s="3"/>
     </row>
-    <row r="9" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1587,6 +1622,10 @@
       <c r="AY9" s="4"/>
       <c r="AZ9" s="4"/>
     </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1597,19 +1636,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="2" width="9.1796875" style="8" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>62</v>
       </c>
@@ -1617,7 +1656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>63</v>
       </c>
@@ -1625,7 +1664,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>65</v>
       </c>

--- a/TestData/Calendar.xlsx
+++ b/TestData/Calendar.xlsx
@@ -388,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -403,6 +403,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -713,8 +714,8 @@
   </sheetPr>
   <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,10 +1505,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="12" t="s">
         <v>95</v>
       </c>
       <c r="E9" s="4"/>

--- a/TestData/Calendar.xlsx
+++ b/TestData/Calendar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AB588B-3B47-4B5D-BFE8-566E33E179CA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927B4C78-6D16-4ED1-A611-1B0C9437121E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24890" windowHeight="10670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,14 +12,14 @@
     <sheet name="KEEP_REFER" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MAIN!$A$1:$AP$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MAIN!$A$1:$AP$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -310,6 +310,51 @@
   </si>
   <si>
     <t>ICCID</t>
+  </si>
+  <si>
+    <t>USERGROUP</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>MIDDLENAME</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>99999999</t>
+  </si>
+  <si>
+    <t>test@amdocs.com</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Carrier User</t>
+  </si>
+  <si>
+    <t>TR0001</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>AT &amp; T Mobility, USA (10007)</t>
+  </si>
+  <si>
+    <t>UserAdministrationRoc</t>
+  </si>
+  <si>
+    <t>UserAdministrationCarrier</t>
   </si>
 </sst>
 </file>
@@ -746,10 +791,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1264,7 +1309,7 @@
     </row>
     <row r="6" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -1286,38 +1331,30 @@
         <v>60</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1355,57 +1392,49 @@
       <c r="AZ6" s="3"/>
     </row>
     <row r="7" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>6</v>
+      <c r="A7" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="7" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="11">
-        <v>999999999999999</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>999999999999999</v>
-      </c>
-      <c r="R7" s="11">
-        <v>999999999999999</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>88</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -1443,8 +1472,8 @@
       <c r="AZ7" s="4"/>
     </row>
     <row r="8" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -1466,38 +1495,28 @@
         <v>60</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1535,15 +1554,15 @@
       <c r="AZ8" s="3"/>
     </row>
     <row r="9" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>8</v>
+      <c r="A9" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1554,38 +1573,28 @@
         <v>69</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="11">
-        <v>999999999999999</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>999999999999999</v>
-      </c>
-      <c r="R9" s="11">
-        <v>999999999999999</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>88</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
@@ -1622,9 +1631,369 @@
       <c r="AY9" s="4"/>
       <c r="AZ9" s="4"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+    <row r="10" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+    </row>
+    <row r="11" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="11">
+        <v>999999999999999</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>999999999999999</v>
+      </c>
+      <c r="R11" s="11">
+        <v>999999999999999</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+    </row>
+    <row r="12" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+    </row>
+    <row r="13" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="11">
+        <v>999999999999999</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>999999999999999</v>
+      </c>
+      <c r="R13" s="11">
+        <v>999999999999999</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/Calendar.xlsx
+++ b/TestData/Calendar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927B4C78-6D16-4ED1-A611-1B0C9437121E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AC68D0-5FF0-4D28-87F6-F4F24CC6ED15}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24890" windowHeight="10670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -793,8 +793,8 @@
   </sheetPr>
   <dimension ref="A1:AZ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestData/Calendar.xlsx
+++ b/TestData/Calendar.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AC68D0-5FF0-4D28-87F6-F4F24CC6ED15}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24890" windowHeight="10670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
     <sheet name="KEEP_REFER" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MAIN!$A$1:$AP$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MAIN!$A$1:$AP$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -355,12 +354,72 @@
   </si>
   <si>
     <t>UserAdministrationCarrier</t>
+  </si>
+  <si>
+    <t>TicketQueue</t>
+  </si>
+  <si>
+    <t>Ticket Queue Roc Super User</t>
+  </si>
+  <si>
+    <t>OPTIONS</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>TableMaintenance</t>
+  </si>
+  <si>
+    <t>TableMaintenanceTest</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>AIRTEL NIGERIA (756)</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>APN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -429,12 +488,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -449,6 +526,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -543,23 +622,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -595,23 +657,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -787,55 +832,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ14"/>
+  <dimension ref="A1:AZ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="53.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="53.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="23.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="25.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="23.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="19.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.26953125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="25" width="23.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="25.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="28.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="25" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="19.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="27.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="28.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="34" width="30.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="23.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="12.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="13.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="33" max="34" width="30.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1038,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -1060,7 +1105,7 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
     </row>
-    <row r="3" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
@@ -1123,7 +1168,7 @@
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
     </row>
-    <row r="4" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -1217,7 +1262,7 @@
       <c r="AY4" s="3"/>
       <c r="AZ4" s="3"/>
     </row>
-    <row r="5" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
@@ -1307,9 +1352,9 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
     </row>
-    <row r="6" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -1391,9 +1436,9 @@
       <c r="AY6" s="3"/>
       <c r="AZ6" s="3"/>
     </row>
-    <row r="7" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
@@ -1471,22 +1516,22 @@
       <c r="AY7" s="4"/>
       <c r="AZ7" s="4"/>
     </row>
-    <row r="8" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>67</v>
@@ -1495,106 +1540,94 @@
         <v>60</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
     </row>
-    <row r="9" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>111</v>
+      <c r="C9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="7" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
@@ -1613,9 +1646,7 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
-      <c r="AL9" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -1629,11 +1660,10 @@
       <c r="AW9" s="4"/>
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
     </row>
-    <row r="10" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -1655,38 +1685,28 @@
         <v>60</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -1723,16 +1743,16 @@
       <c r="AY10" s="3"/>
       <c r="AZ10" s="3"/>
     </row>
-    <row r="11" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>6</v>
+    <row r="11" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1743,38 +1763,28 @@
         <v>69</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="11">
-        <v>999999999999999</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>999999999999999</v>
-      </c>
-      <c r="R11" s="11">
-        <v>999999999999999</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>88</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -1811,9 +1821,9 @@
       <c r="AY11" s="4"/>
       <c r="AZ11" s="4"/>
     </row>
-    <row r="12" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>7</v>
+    <row r="12" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -1826,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>67</v>
@@ -1903,16 +1913,16 @@
       <c r="AY12" s="3"/>
       <c r="AZ12" s="3"/>
     </row>
-    <row r="13" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>8</v>
+    <row r="13" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1991,9 +2001,332 @@
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+    <row r="14" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+    </row>
+    <row r="15" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+    </row>
+    <row r="16" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+    </row>
+    <row r="17" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="11">
+        <v>999999999999999</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>999999999999999</v>
+      </c>
+      <c r="R17" s="11">
+        <v>999999999999999</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2005,19 +2338,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="8" collapsed="1"/>
+    <col min="1" max="2" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>62</v>
       </c>
@@ -2025,7 +2358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>63</v>
       </c>
@@ -2033,7 +2366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
